--- a/deuChatbot/research_result/results/meteor_score/meteor_version_1(2500_500).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_1(2500_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6110,61 +6110,3440 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>نعم, 동의대학교 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+특히 나군 실기/실적(경기실적우수자전형)의 경우 출결 상황이 다음과 같이 반영됩니다:
+- 출결 점수: 12%
+따라서 학생부교과 전형에서 출결 기록은 지원자의 합격 여부에 영향을 미칠 수 있습니다. 
+출결 점수가 포함된 전체 반영 비율은 다음과 같습니다:
+- 학생부 교과성적: 18%
+- 출결 상황: 12%
+- 서류(경기실적): 70%
+따라서 좋은 출석 기록을 유지하는 것이 지원자의 경쟁력을 높이는 데 도움이 될 수 있습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4112521213983774</v>
+        <v>0.07989476187644923</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+[표 내용]
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+```
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2605798149824099</v>
+        <v>0.2404766620452895</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기고사는 시각디자인, 산업디자인, 공예디자인 중에서 선택하여 응시하게 됩니다. 각 분야별로 다음과 같은 준비물과 주제, 화지 크기, 시간이 지정되어 있습니다:
+1. **기초디자인 / 사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 당일 추첨
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+   - **화지크기**: 켄트지 3절
+   - **시간**: 5시간
+2. **시각디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 당일 추첨
+     - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+   - **화지크기**: 켄트지 2절
+   - **시간**: 5시간
+3. **공예디자인**
+   - (상세 내용은 제공되지 않았습니다)
+실기고사는 각 분야별로 주제를 당일 추첨하여 준비해야 하며, 화지 크기는 켄트지가 사용됩니다. 시간은 모두 5시간으로 동일합니다.
+주의사항:
+- 제공된 사물과 이미지는 표현하지 않아야 합니다.
+- 제공된 사물은 모두 1회 이상 표현해야 하며 색상 변경은 금지입니다.
+- 준비물은 개인이 가져가야 합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5779255291138271</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+- **화지크기**: 켄트지 3절입니다.
+- **시간**: 5시간 동안 진행됩니다.
+각 종목은 주제를 바탕으로 개인의 창의성을 발휘하여 작품을 제작해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4077914599574769</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.8554395269914922</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (오이)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:  
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+시험 당일에는 이 주제들 중 각각 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예를 들어 잠자리와 저울을 연결한 주제 등을 만들게 됩니다.
+주의: 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상도 변경해서는 안 됩니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3802710843373494</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2722041731490802</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5581885202738283</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+ 수능 영어 등급에 따른 점수는 다음과 같습니다:
+1등급 : 139점
+2등급 : 131점 
+3등급 : 123점
+4등급 : 115점
+5등급 : 107점
+6등급 : 99점
+7등급 : 91점
+8등급 : 83점
+9등급 : 75점
+이 점수들은 등급에 따른 평균 점수이며, 실제 수험생의 경우 개인별로 약간의 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.704186187102021</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中毕业生不能申请“나군 학생부교과(농어촌학생전형)”（即农村学生专项计划）。具体来说，在“지원자격”（资格要求）部分提到：
+"농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 왖국어고, 체육고, 예술고 출신자는 지원할 수 없습니다。"
+这句韩文的意思是：位于农村地区或偏远地区的特殊高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的毕业生不能申请此专项计划。
+因此，艺术高中的学生不符合该专项计划的资格要求。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.7354051565377533</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급에서 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 252~255cm이며, 배점은 175점입니다.
+Z-런의 경우, 4등급에서는 15.60~15.79cm의 기록을 가지고 있으며, 이 때의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3074734693286618</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.2575791418766625</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표의 내용 중 물리치료학과에 대한 정보가 다음과 같습니다:
+공과대학 / 공학 / 물리치료학과 / 4 /
+따라서 동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.2202316854299233</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.09559434746467166</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준은 해당 학과의 모집단위와 전형 유형에 따라 다를 수 있습니다.
+표 '다군 수능(일반학생전형) 모집단위 및 모집인원'을 보면 응용화학과는 공과대학의 모집단위로 분류되어 있습니다. 그러나 표에서 해당 학과의 수능 최저기준은 명시되어 있지 않습니다.
+표 '다군 수능(일반학생전형) 전형요소 반영비율'을 보면 다군 수능(일반학생전형)의 경우 전 모집단위에 대해 100% 수능 성적을 반영한다고 되어 있습니다. 그러나 이는 최저기준을 명시하지 않습니다.
+따라서, 정확한 수능 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 해당 학과의 공지사항을 참조하거나 직접 문의하는 것이 가장 확실합니다. 
+추가적으로, 수능 최저기준은 매년 변경될 수 있으므로, 최신 정보를 얻기 위해서는 대학 입학 홈페이지를 확인하시거나 전화로 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.02572275345300006</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+2. 미래융합대학 - 부동산자산경역학부 (신설)
+3. 상경대학 - 스마트항만물류학과 (신설)
+4. 상경대학 - 창업투자경영학과 (신설)
+5. 의료보건생활대학 - 간호학과 (교직) - 간호교육인증
+6. 인문사회과학대학 - 심리학과 (신설)
+이 정보는 제공된 데이터에서 추출한 것입니다. 추가로 신설된 학과가 있는지 확인하려면 대학의 공식 웹사이트를 방문하여 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [표 내용]에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.5563430901712816</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+이 정보는 "가산점" 섹션에서 확인할 수 있습니다:
+[표 속성]
+``` 모집단위 / 수능 가산점 ```
+[표 내용]
+```
+의료·보건·생활, 공과, ICT융합공과대학 모집단위 / 수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여 /
+```
+따라서 수능 가산점을 적용받을 수 있는 학과는 한의예과 중 수학(미적분/기하) 응시자에 한해 해당됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3372963177053227</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 전 모집단위(레저스포츠학과, 태권도학과 제외)에 대해 100%로 반영됩니다.
+관련 표는 다음과 같습니다:
+``` 
+전형명 / 모집단위 / 전형요소 반영비율{ 수능 / 실기 }
+가군 수능 (일반학생전형) / 전 모집단위(레저스포츠학과, 태권도학과 제외) / { 100% /  - / } /
+```
+따라서 가군의 모든 모집단위에서 수능 성적은 최대 비중을 차지하며, 실기 절차는 해당 학과들에만 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.173519297542735</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정되어 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**에 시행됩니다.
+참조: 
+[표 제목 : 전형일정]
+```
+&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과 / 2024. 01. 16.(화) /
+```</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1430401726259714</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 실기/실적 위주 모집단위로 분류되는 레저스포츠학과, 태권도학과는 제외됩니다.
+이 점을 확인하기 위해 관련 정보를 요약하면:
+- [표 내용] 섹션에서 나군 수능(일반학생전형)의 모집단위가 다음과 같이 나열되어 있습니다:
+  - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 위주 모집단위로 분류됩니다.
+- [표 내용] 섹션에서 나군 수능(일반학생전형)의 전형요소 반영비율이 다음과 같이 설명되어 있습니다:
+  - 디자인조형학과, 체육학과는 30% 실기 + 70% 수능을 반영합니다.
+  - 레저스포츠학과, 태권도학과는 70% 실기 + 30% 수능을 반영합니다.
+따라서, 레저스포츠학과와 태권도학과는 나군 수능(일반학생전형)에서 제외되는 모집단위입니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.124638327265807</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+다군 전형의 모집단위별로 수능 성적이 100% 반영되며, 수능 성적 기준에 따라 합격자가 선정됩니다.
+관련 정보는 다음과 같습니다:
+- 다군 수능(일반학생전형) / 전 모집단위 / { 100% / } /
+따라서 지원자는 해당 모집단위의 수능 최저점수를 충족시켜야 하며, 최저기준 미달 시에는 합격이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1340629928786503</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 경제금융보험학과 -&gt; 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 -&gt; 부동산투자학, 부동산개발경영학
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) -&gt; 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) -&gt; 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) -&gt; 전기공학과, 전자공학과
+이 외에도 몇몇 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.7742326240310502</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**입니다.
+추가 유의사항:
+- 이 시간 정각에 원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.1606234096692112</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. 학생부종합(성인학습자전형):
+   - 지원자격 변경: 
+     * "특성화고 등을 졸업한 재직자"로 변경됨
+     * "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 변경됨
+2. 학생부종합(성인학습자(정원내)전형):
+   - 지원자격 변경:
+     * "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 변경됨
+3. 학생부종합(조기취업형계약학과전형):
+   - 전형요소 반영비율 변경:
+     * "서류(학생부)70%+면접30%"에서 
+     * "서류(학생부)60%+면접40%"로 변경됨
+이러한 변화는 2024학년도 동의대학교 입시 전형에 영향을 미칠 수 있으므로 지원자들은 신중하게 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3945920503503129</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이는 "가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }"라는 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2512657591201717</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'의 세부 전공은 다음과 같습니다:
+- 스타트업 창업 투자학
+- 뷰티 비즈니스학 
+- 라이프 생활 문화학
+这三个专业方向共同构成了生活融合学部的新设本科专业。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.757139854238107</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 일반적으로 수능 성적을 기준으로 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.3531690855973379</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군)
+2. 태권도학과 (가군)
+3. 디자인조형학과 (나군)
+4. 체육학과 (나군)
+5. 경기지도학과 (다군)
+이러한 학과들은 해당 전형을 지원할 수 있으며, 각 학과별로 모집 단위와 지원 자격 등이 다를 수 있으므로 공식 입시 안내서나 대학 홈페이지를 확인하시어 자세한 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.3842888315597695</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공은 라이프융합학부의 핵심 분야를 포괄하며, 미래 사회에서 개인과 사회가 직면할 수 있는 다양한 삶의 질 향상을 위한 교육을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.3298798342074618</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 지원할 수 없습니다.
+참조된 내용:
+- [표 제목 : 고교유형별 지원자격]
+  - 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.
+따라서, 특수목적고등학교 학생으로서 동의대학교 일반학생전형에 지원하는 것은 불가능합니다. 다른 전형을 찾아보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3006394149251292</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집인원을 확인해야 합니다. 제공된 정보 중 나군 학생부종합(평생학습자전형) 및 (성인학습자(정원내·외)전형)의 모집인원이 가장 많습니다.
+다음은 나군에서 주요 학과별 정원 내 모집인원입니다:
+- 미래융합대학 인문사회 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 11명
+- 미래융합대학 인문사회 부동산자산경영학부(부동산투자학, 부동산개발경영학): 7명 (성인학습자(정원내)전형), 17명 (성인학습자(정원외)전형)
+- 미래융합대학 인문사회 부동산자산경영학부(부동산투자학, 부동산개발경영학): 7명
+이 중에서 가장 많은 모집인원을 보이는 학과는 **미래융합대학 인문사회 부동산자산경영학부**입니다. 이 학과는 성인학습자(정원내)전형에서는 7명, 성인학습자(정원외)전형에서는 17명을 모집하며 총 24명을 모집합니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **미래융합대학 인문사회 부동산자산경영학부**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.08152468254148185</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不满足申请条件。根据提供的信息，东义大学的学生部教科农村学生类型要求：
+1. 必须是在农村（乡镇）地区中学和高中期间完成整个教育过程的中学生。
+2. 中学生及其父母在中学和高中学习期间必须都居住在农村地区（如果父母一方去世或离婚，则不在此限）。
+而特殊目的高中（如科学高中、国际高中、外语高中等）的学生不符合这个条件。因此，作为特殊目的高中的学生，你不能申请东义大学的学生部教科农村学生类型。
+如果你希望申请，请考虑其他类型的入学途径，例如城市地区学校或符合其他申请资格的项目。建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取更详细的信息和最新的招生要求。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.05102040816326531</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이 정보는 "다군 수능(일반학생전형) 전형요소 반영비율" 및 "수능(일반학생전형) 최종등록자" 표에서 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1145813298335728</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 330.11 / 9.08 }
+- 영어 등급: { 3.30 / 0.82 }
+- 수능 4개 영역 등급: { 4.12 / 0.32 }
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: { 450.71 / 10.11 }
+따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0941979311885268</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024. 02. 02.(금) 14:00
+   - 방법: 홈페이지에서 개별 조회
+2. 충원 합격자 1차 발표 및 등록:
+   - 날짜: 
+     - 발표: 2024. 02. 14.(수) 09:00
+     - 등록: 2024. 02. 14.(수) 09:00~16:00
+3. 충원 합격자 2차 발표 및 등록:
+   - 날짜: 
+     - 발표: 2024. 02. 15.(목) 09:00
+     - 등록: 2024. 02. 15.(목) 09:00~16:00
+4. 충원 합격자 3차 이후 발표 및 등록:
+   - 날짜: 
+     - 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 등록: 개별 전화 통보 시 안내
+모든 지원자는 합격 여부를 홈페이지에서 확인해야 하며, 지정된 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3006444683136412</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 &lt;가&gt;군 실기고사 레저스포츠학과와 태권도학과의 면접고사를 보실 수 있습니다. 이 날짜에는 대기실 및 입실 시간 안내를 받을 수 있으니, 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.
+추가 정보:
+- 태권도학과의 경우는 2024년 1월 16일(화)에 면접고사를 보실 수 있습니다.
+- 레저스포츠학과의 경우는 2024년 1월 17일(수)에 면접고사를 보실 수 있습니다.
+상세 일정은 전형일정 표를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.08552911931818183</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이는 전형요소 반영비율 표에서 확인할 수 있으며, 학생부종합(평생학습자전형)의 지원자격 항목에서도 동일하게 명시되어 있습니다.
+추가로, 한의예과는 수능 최저기준이 없으며, 주요 특징은 다음과 같습니다:
+- 수능 영역 중 국어, 수학 (미적분 또는 기하), 영어 등급에 따른 점수를 반영합니다.
+- 탐구 영역은 사회탐구 또는 과학탐구 중 2개 과목을 선택하여 백분위 변환표준점수를 반영합니다.
+따라서, 한의예과는 주로 수능 성적과 학생부 성적으로 평가되며, 최저학력 기준은 고교 졸업(예정)자 또는 법령에 의한 동등 학력을 갖춘 자입니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.03516399537343027</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 제시된 표에서는 정시모집의 경우 수능 최저학력 기준이 없습니다. 관련 정보는 다음과 같습니다:
+- 전형 유형별로 나누어져 있으며, 수능 위주 전형과 실기/실적 위주 전형 등이 있습니다.
+- 각 전형에서 수능최저기준 항목은 모두 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서 2024학년도에 따르면 정시모집에서는 수능 최저학력 기준이 없습니다. 하지만 이는 특정 학교나 전형별로 변동될 수 있으므로, 공식 입학전형요강이나 해당 대학의 웹사이트를 확인하는 것이 가장 정확한 정보를 얻는 방법입니다.
+추가적으로, 만약 최저학력기준이 변경되었거나 추가된 경우에는 공지사항이나 새로운 전형요강을 통해 안내될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.05134091739766082</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자 발표에서는 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있으므로 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4060947847682119</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024. 02. 15.(목) 09:00부터 3차 이후의 추가합격자를 발표합니다.
+추가적으로, 3차 이후의 충원 합격자는 다음과 같이 발표 및 등록됩니다:
+- **발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (개별 전화 통보)
+- **등록**: 개별 전화 통보 시 안내
+모든 지원자는 이 일정을 참고하여 합격 여부를 확인하고 등록금을 지정 기일 내에 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2251028292379166</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년도 동일 모집단위에서 추가모집 여부는 정시 모집 때 각 단과대학의 모집인원이 충족되지 않은 경우에만 이월하여 추가로 합격자를 선발할 수 있습니다. 
+특히, 다음과 같은 전형들은 2024년 1월 2일 이후 수시모집에서 등록한 지원자의 등록(입학) 포기로 인해 결원이 발생했을 때 해당 모집인원을 정시 &lt;나&gt;군으로 이월하여 추가로 합격자를 선발할 수 있습니다:
+- 수시모집 실기/실적(경기실적우수자전형)
+- 수시모집 학생부교과(농어촌학생전형) 
+- 수시모집 학생부종합(성인학습자(정원내)전형)
+- 수시모집 학생부종합(성인학습자(정원외)전형)
+- 수시모집 학생부종합(재직자전형)
+- 수시모집 학생부종합(조기취업형계약학과전형)
+따라서, 특정 전형에서 모집인원이 충족되지 않은 경우 해당 전형의 정원을 이월하여 추가로 합격자를 선발할 수 있습니다. 하지만 모든 단과대학 및 모집단위에서 추가모집이 이루어지는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1685331576635924</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 사람들을 대상으로 하는 입학전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 모집단위 및 인원:
+   - 인문사회과학대학, 상경대학 등 다양한 학과에서 모집
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류 (고교 졸업(예정)자):
+   - 고교 학교생활기록부 1부
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류(선택)
+5. 추가제출서류 (외국고교 졸업예정자):
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (선택)
+6. 동점자 처리 기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+7. 기타 유의사항:
+   - 제출기간 및 장소 확인 필요
+   - 서류제출 여부는 홈페이지에서 확인 가능
+평생학습자전형은 평생교육을 받은 사람들의 학업 역량과 전공 적합성을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4367129521837483</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+2. 만 30세 이상인 자 (성인학습자 전형)
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.
+추가로, 지원자는 다음과 같은 서류를 제출해야 합니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 증명서
+- 2024년 3월 1일 기준으로 총 재직기간이 3년 이상인 증빙 서류
+위 자격 요건과 제출 서류를 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.1843421916010499</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024. 01. 16.(화)와 2024. 01. 17.(수)에 실기고사가 진행됩니다.
+- **레저스포츠학과, 태권도학과**의 실기고사는 각각 다음과 같은 날짜에 실시됩니다:
+  - **2024. 01. 16.(화)**: 레저스포츠학과
+  - **2024. 01. 17.(수)**: 태권도학과
+실기고사는 대기실 및 입실 시간 안내가 제공되며, 이 정보는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 해당 날짜와 장소로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1783684295999567</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **종목별 배점(비율)**:
+   - 제자리 멀리뛰기: 240점 (24%)
+   - 메디신볼 던지기: 243점 (23%)
+   - Z-런: 230점 (23%)
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B를 당일 추첨하여 연결된 주제로 준비해야 합니다.
+   - 예시: 콜라병과 계절 (콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼)와 바이러스, 자유, 여행, 계절, 꿈 중에서 각 1개씩 선정하여 연결된 주제를 준비합니다.
+4. **화지크기**:
+   - 켄트지2절
+5. **시간**:
+   - 5시간
+6. **주의사항**:
+   - 운동복 및 운동화 착용 (스파이크, 축구화 등 특수화는 불가)
+   - 신발바닥에 이물질 가칠 수 없음
+   - 메디신볼 규격: 남자 3kg, 여자 2kg
+   - 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게 최저점수 부여
+   - 각 실기종목별 2회 반칙자에게는 최저점수 부여
+따라서 체육학과의 실기고사는 준비물과 주제를 정해 화지에 그림을 그리는 방식으로 진행되며, 시간은 5시간 동안 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0293491124260355</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서 수시 충원합격자 발표 시에는 전화로 통보는 이루어지지만, 3회 이상의 통화 실패 후에는 등록 의사가 없는 것으로 간주될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2764686556044775</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有关于2023年警察行政学系的单独招生结果。根据给定的信息，主要包含了以下几个方面的内容：
+1. 招生专业和录取比例表。
+2. 2024年的主要变化事项。
+3. 高中学历类型对应的报考资格。
+4. 报名费信息。
+5. 个人信息提供同意书。
+6. 2024年一般学生型考试（普通学生型）的详细信息，包括各系别、招生单位、招生人数等。
+7. 各种类型的入学考试安排和时间表。
+如果您需要了解2023年警察行政学系的具体录取结果，请访问学校官方网站或联系学校的招生办公室获取最新和准确的信息。因为这些具体数据通常不会在公共信息中详细列出，而是由学校根据实际情况进行管理和公布。</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.04043126684636118</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 실기/실적 위주 전형 등은 수능 점수를 요구하지 않을 수 있습니다.
+예를 들어:
+- **학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)**: 이들 전형에서는 수능을 응시하지 않아도 지원이 가능합니다.
+- **실기/실적 위주 전형**: 디자인조형학과, 체육학과 등에서 실기나 경기실적을 중점적으로 평가하므로 수능 점수 없이도 지원할 수 있습니다.
+하지만 대부분의 일반학생전형에서는 수능 성적이 필수적인 요소로 포함되어 있으므로, 수능 응시는 필수입니다. 각 전형별 세부요건은 공식 입학전형 안내를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.04874444794180394</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+고등학교 졸업 후 10년이 지났다고 하더라도, 일반적으로 대학은 고등학교 졸업 자격을 갖춘 지원자들을 대상으로 모집합니다. 동의대학교의 경우에도 정시모집에서는 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자를 대상으로 하고 있습니다.
+하지만, 10년이 지난 경우에는 다음과 같은 점을 고려해야 합니다:
+1. **법적 학력**: 여전히 고등학교 졸업 자격을 유지하고 있어야 합니다.
+2. **수능 성적**: 일부 전형에서는 수능 성적이 필요할 수 있습니다.
+3. **기타 자격**: 특정 전형에서는 추가적인 자격 요건이 있을 수 있습니다.
+따라서, 10년이 지났다고 해도 정시 지원이 불가능하지는 않습니다. 다만, 다음과 같은 절차를 따르셔야 합니다:
+- **학력 확인**: 고등학교 졸업 증명서를 준비해야 합니다.
+- **수능 성적**: 일부 전형에서는 수능 성적이 필요할 수 있으므로 이를 준비해두세요.
+- **지원 자격 확인**: 해당 전형의 지원 자격을 다시 한번 확인하시기 바랍니다.
+만약 특정 전형에 대해 더 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.08116596098385349</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접속이 차단되는 시간은 2024년 1월 6일 (토) 18시 정각입니다.
+   - 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상자는 우편발송용 표지를 출력하여 봉투에 부착 후 제출서류를 송부해야 합니다.
+4. **&lt;가&gt;군 실기고사**: 2024년 1월 16일 (화)
+   - 레저스포츠학과, 태권도학과의 경우입니다.
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+5. **&lt;나&gt;군 실기고사**: 2024년 1월 17일 (수)
+   - 디자인조형학과, 체육학과의 경우입니다.
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일 (수) 09:00
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일 (목) 09:00
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이 일정을 준수하여 지원해야 하며, 특히 원서접수 마감일과 서류 제출 마감일 등을 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.6037341561380447</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 접수기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 접수사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 제출기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 서류제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **실기고사**:
+   - &lt;가&gt;군 실기고사 (레저스포츠학과 태권도학과): 2024년 1월 16일 (화)
+   - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과): 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시, 2024년 2월 14일 (수) 16시까지
+     - 2차: 2024년 2월 15일 (목) 9시, 2024년 2월 15일 (목) 16시까지
+   - 3차 이후 충원 합격자 발표 및 등록: 개별 전화 통보 시 안내
+이 일정은 일반적으로 동의대학교 정시 모집에서 지원자가 준수해야 하는 주요 단계입니다. 각 단계마다 중요한 정보가 있으므로, 지원자는 해당 기간 내에 필요한 서류를 제출하고 원서를 접수하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.5604015973189902</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집에서 수능을 미응시한 학생도 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 이 전형에서는 수능이 필요하지 않습니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서도 수능이 필요하지 않습니다.
+3. **학생부종합(성인학습자(정원외)전형)** - 이 전형 역시 수능이 필요하지 않습니다.
+4. **학생부종합(재직자전형)** - 이 전형에서는 수능이 필요하지 않습니다.
+5. **학생부종합(조기취업형계약학과전형)** - 이 전형에서도 수능이 필요하지 않습니다.
+이러한 전형들은 주로 학생부 교과성적, 면접 성적 등 다른 평가 기준을 통해 지원자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.09171906022501654</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 모집에서 전자공학과의 충원 합격은 3차 이후까지 이루어질 수 있습니다. 이는 지원자 유의사항 (합격자(최초 및 충원) 발표 및 등록금 납부)에 따르면, "3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로 충원합격자 발표 기간(2024년 2월 15일(목)~2024년2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다."라고 명시되어 있습니다. 따라서 전년도에도 비슷한 절차가 적용되었을 가능성이 높습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1519262726827604</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학관리 관련 연락처는 다음과 같습니다:
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+하지만 정확한 동의대학교 입학처 전화번호가 직접적으로 나와 있지 않습니다. 제공된 정보를 기반으로 추측하자면, 일반적인 대학교 입학처 연락처는 주로 051-290-XXXX 형식일 가능성이 높습니다. 실제 번호는 동의대학교 공식 홈페이지나 전화로 확인하시는 것이 가장 정확할 것입니다.
+추가적으로, 제공된 정보에는 개인정보 제공 동의와 관련하여 "우리대학 입학관리위원회"라는 단어가 나왔지만, 이委员会，您提供的信息中并没有直接提到东义大学入学处的具体电话号码。根据给出的信息，与入学管理相关的联系方式是：
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+但是，为了获取最准确的入学处联系电话，建议您直接访问东义大学的官方网站或通过其他官方渠道进行查询。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.06338893661702941</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우 다음과 같은 절차로 처리됩니다:
+1. **발표 방법**: 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+3. **등록장소**: 학교 지정은행으로 등록금을 납부해야 합니다 (등록금 고지서에 기재된 정보를 참고).
+따라서, 전화 통화가 되지 않더라도 지원자는 반드시 홈페이지를 통해 합격 여부를 확인하고, 필요시 입학관리팀에서 상세한 안내를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.2123882641291811</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원시 제출해야 할 서류가 다릅니다.
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**추가 제출서류:**
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부
+**기타 정보:**
+- 제출기간 : 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소 : (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 고교졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인하여야 하고 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6130070795581716</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+주요 특징:
+- 부모의 거주지와는 상관없이 지원자의 초·중·고등학교 재학기간 동안 농어촌 지역 소재 학교에서 교육을 받았다면 지원 가능
+- 제출서류 중 학교생활기록부는 온라인 제공이 가능한 경우 제출하지 않아도 됨
+따라서 주민등록초본과 3년간의 학교생활기록부만 추가로 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4177098284806661</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到是否在普通招生（정시모집）中进行低收入机会均等类型的录取。根据现有内容，无法确定是否有此类专门的低收入学生录取计划。建议直接访问学校官网或联系学校的招生办公室以获取最准确的信息。
+如果您需要了解更多信息，可以参考以下链接：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接咨询学校招生办公室确认是否有关于低收入学生的特殊录取政策。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1644736842105263</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어영역의 등급은 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다.
+따라서, 사탐(사회) 2과목 평균산출에서 2.5등급이 나온다면, 이는 절사되기 때문에 2등급으로 반영됩니다.
+[표 추가내용]에 따르면 "등급 평균 산출 시 소수점 셋째자리에서 절사합니다."라고 명시되어 있습니다. 따라서 2.5등급은 3등급보다 낮게 반영되므로 2등급으로 처리됩니다.
+결론적으로, 사탐 2과목 평균산출에서 2.5등급이 나온다면 2등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2000282892100238</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동기의 정시 모집에서는 나군 실기/실적(경기실적우수자전형)을 제외한 정시모집 전반에 걸쳐 충원 합격자가 발표됩니다. 
+발표 일정은 다음과 같습니다:
+1차: 2024년 2월 14일 (수)
+2차: 2024년 2월 15일 (목)
+이후 3차 이후의 충원 합격자는 개별 전화 통보 방식으로 발표됩니다. 
+따라서 정시 충원 합격자 발표는 총 3차까지 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3286788979151684</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看ebiznesis学部(e비즈니스학과)的相关招生信息。根据提供的表格内容，“多军（一般学生入学考试）”的招生信息如下：
+```plaintext
+多军（一般学生入学考试） / ebiznesis学部 (e비즈니스학과) / 45人 (7人)
+```
+这表明ebiznesis学部在“多军（一般学生入学考试）”中计划招收45名学生。
+关于成绩要求，表格显示：
+```plaintext
+多军（一般学生入学考试） / 所有招生单位 / {100% /}
+```
+这意味着所有招生单位的成绩占比为100%，即主要依赖于高考成绩。但是具体到ebiznesis学部的最低分数线没有直接给出。
+通常情况下，大学会有一个最低录取分数要求（即“最低合格线”），如果考生的高考成绩达到或超过这个分数线，则有可能被录取。但具体的最低分数线需要参考学校官方发布的招生简章或者咨询学校的招生办公室。
+根据提供的信息，我们无法确定4.6分是否达到了ebiznesis学部的最低录取分数要求。因此，建议直接联系东国大学（동의대학교）的招生办公室或访问其官方网站获取更准确的信息。
+总结：仅凭现有信息无法判断4.6分能否被ebiznesis学部录取。需要进一步查询具体的最低录取分数线。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1116539874081847</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과의 모집요강**：根据提供的信息，e비즈니스学和的录取标准是“实操/成绩（30%）+论文（70%）”。这意味着主要依赖于学生的实操能力和学术表现。
+2. **5.3等值的分数**：在韩国大学入学考试中，等级分为1到9级。5.3通常对应的是B等级或接近B等级的成绩。根据提供的成绩表：
+   - 5等（B等级）对应的分数是107分。
+3. **e비즈니스学和的录取标准**：虽然没有直接给出具体的分数线，但可以参考其他类似专业的录取情况来推测。
+4. **竞争情况**：从表格中可以看到，e비즈니스学和的竞争率（竞争人数与招生名额之比）为8.90。这意味着每个名额有近9名学生竞争。
+综合以上信息：
+- 5.3等的成绩在韩国大学入学考试中属于中上水平。
+- e비즈尼斯学和的录取标准主要依赖于实操能力和学术表现，而5.3等的成绩在学术方面是符合要求的。
+- 竞争率较高（8.90），意味着竞争激烈。
+因此，虽然有5.3等的成绩可以提高被录取的机会，但能否成为最开始的合格者还取决于其他因素如实操成绩、论文质量以及面试表现等。总体来说，有一定机会，但并不是非常高。建议考生在准备过程中注重提升实操能力和完善论文内容以增加竞争力。
+如果需要更准确的信息，建议直接咨询东国大学或查看最新的招生简章和录取分数线。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.09861848139412997</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了评估您是否有资格被预录取，我们需要考虑以下几个因素：
+1. **成绩**：根据提供的表格数据，e비즈니스학과的预录取标准如下：
+   - 共同体能力：120分
+   - 学业能力：240分
+   - 专业适应性：240分
+   总分为600分。
+2. **您的成绩**：您提供的信息是38名预录取，但没有具体的成绩分数。我们需要知道具体的分数来评估是否达到标准。
+假设您能提供以下具体分数：
+- 共同体能力（120分）
+- 学业能力（240分）
+- 专业适应性（240分）
+如果您的总分达到了600分，那么预录取的可能性较大。否则，可能需要进一步提高某些方面的成绩。
+请提供具体的分数以便进行更准确的评估。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.08151692362218678</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수만으로는 확실한 합격 여부를 판단하기 어렵습니다. 동의대학교 간호학과의 최종합격자들의 성적 분포를 보면 다음과 같습니다:
+1. **최종합격자의 평균 영어 등급**: 2.34 (간호학과)
+2. **최종합격자의 평균 수능 4개 영역 등급**: 5.92
+당신의 성적(국어+수학+탐구: 3.44)은 이들보다 약간 낮습니다. 그러나 동의대학교 간호학과는 다양한 요소를 고려하여 합격자를 선발하므로, 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **전형요소**: 서류평가, 면접 등이 포함되어 있으므로, 이들에서도 좋은 평가를 받을 수 있다면 기회는 남아 있을 수 있습니다.
+2. **경쟁률**: 현재의 지원자 중에서 당신보다 낮은 점수를 가진 지원자가 얼마나 있는지 확인해야 합니다.
+3. **개인 특성**: 학교생활, 활동 경력 등 개인적인 성장과 경험도 고려됩니다.
+따라서, 단순히 성적만으로 판단하기보다는 전반적인 지원 자질을 평가받아야 합니다. 만약 확신이 없다면, 동의대학교 입학 홈페이지나 관련 컨설팅 서비스를 통해 상세한 정보를 얻거나 전문가와 상담하는 것이 좋습니다.
+또한, 다른 대학이나 학과도 고려해보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1173668572806301</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종합격하기는 매우 어려울 것으로 보입니다.
+이유는 다음과 같습니다:
+1. 간호학과 모집인원 및 지원자 수:
+   - 간호학과는 총 22명을 모집합니다.
+   - 지원자는 145명으로, 경쟁률이 매우 높습니다 (6.59).
+2. 최종 합격자의 성적 분포:
+   - 최종합격자들의 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수가 481.70입니다.
+   - 이는 매우 높은 점수이며, 2.52보다 훨씬 높습니다.
+3. 성적 기준:
+   - 동의대학교 간호학과는 비교적 높은 수능 최저점수를 요구합니다 (1.86 등급 이상).
+   - 2.52는 이 기준을 충족하지 못합니다.
+4. 경쟁률이 매우 높기 때문에:
+   - 성적이 낮은 지원자는 거의 합격할 확률이 없습니다.
+   - 대부분의 합격자들은 3.0 이상의 국어+수학+탐구 점수가 필요합니다.
+따라서, 현재의 성적 상태로는 동의대학교 간호학과에 최종합격하기가 매우 어려울 것으로 예상됩니다. 성적이 더 높아지거나 다른 전략을 고려해야 할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.09783146146782509</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 중간적인 점수로, 간호학과에 입학하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전체 경쟁률**: 간호학과는 일반적으로 매우 높은 경쟁률을 보입니다. 특히 정시 모집에서는 더욱 치열합니다.
+2. **수능 성적**: 수능 성적이 중요합니다. 간호학과는 주로 수능 과탐(생물) 점수가 높은 학생들을 선호하기도 합니다.
+3. **추천서 및 자기소개서**: 일부 대학에서는 추천서나 자기소개서를 요구할 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다.
+5. **기타 요인**: 학교마다 다른 기준이 있을 수 있으므로, 해당 대학의 정시 모집요강을 꼭 확인해야 합니다.
+3.7 GPA로 간호학과에 합격할 가능성은 있습니다만, 경쟁률이 매우 높아서 확실한 것은 아닙니다. 다음과 같은 조언들이 도움이 될 수 있습니다:
+- **수능 성적 강화**: 수능 과목 중 생물 점수가 높은 것이 좋습니다.
+- **추천서 및 자기소개서 작성**: 잘 준비된 추천서와 자기소개서는 큰 도움이 됩니다.
+- **면접 준비**: 면접에서도 좋은 평가를 받을 수 있도록 충분히 준비해야 합니다.
+결국, 최종 합격 여부는 해당 대학의 정시 모집요강과 경쟁률에 따라 결정됩니다. 따라서, 가능한 한 많은 정보를 수집하고, 여러 대안을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.05547054322876818</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에서 지원자의 성적을 분석해보겠습니다.
+간호학과의 최초합격자 표를 보면, 국어국문학과와 중어중국학과 등 다른 학과들과 마찬가지로 2024학년도 간호학과의 모집인원은 22명이며 지원 인원이 88명으로 많은 경쟁률을 보이고 있습니다.
+간호학과 최초합격자 표에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 407.50, 표준 편차는 12.13입니다.
+지원자의 성적인 2.58을 이 표준으로 보자면:
+- 2.58은 표준점수로 볼 때 매우 낮은 점수입니다.
+- 평균이 407.50이고 표준 편차가 12.13인 분포에서 2.58은 약 -30.67표준편차 밑에 위치합니다.
+이는 매우 낮은 성적을 의미하며, 이는 대부분의 합격자들보다 훨씬 낮습니다. 실제로 표준점수 평균과 비교했을 때, 2.58은 매우 낮은 점수로, 일반적으로 합격 가능성은 매우 낮다고 볼 수 있습니다.
+따라서, 지원자의 성적이 2.58이라면 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 예상됩니다. 그러나 최종 등록자 표를 확인하거나, 입학사정관들이 별도로 고려할 수 있는 특별한 사항이 있다면 가능성이 있을 수 있습니다.
+결론적으로, 지원자의 성적이 2.58이라면 정시 전형으로 간호학과에 합격하기는 매우 어려울 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.1034352742150718</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년의 전형 일정과 관련된 정보를 바탕으로 답변 드리겠습니다.
+- **합격자 발표 및 등록금 납부**:
+  - 최초 합격자 발표는 2024년 2월 2일(금)입니다.
+  - 최초 합격자 등록은 2024년 2월 7일(수)부터 13일(화)까지 가능합니다.
+- **충원 합격자 발표 및 등록**:
+  - 충원 합격자는 2차, 3차로 나뉘어 발표되며, 각각의 발표 일정은 다음과 같습니다.
+    - 1차 충원 합격자 발표: 2024년 2월 14일(수)
+    - 1차 충원 합격자 등록: 2024년 2월 14일(수) 9시부터 16시까지
+    - 2차 충원 합격자 발표: 2024년 2월 15일(목)
+    - 2차 충원 합격자 등록: 2024년 2월 15일(목) 9시부터 16시까지
+    - 3차 이후 충원 합격자 발표: 2024년 2월 15일(목) 19시부터 2월 20일(화) 18시까지 (개별 전화 통보)
+- **등록금 납부**:
+  - 최초 합격자는 2024년 2월 7일(수)부터 13일(화)까지 등록금을 납부해야 합니다.
+  - 충원 합격자도 각각의 발표 일정에 따라 지정된 기간 내에 등록금을 납부해야 합니다.
+따라서, 예비번호 7번으로 붙으시려면:
+1. **2월 15일(목)까지** 합격 여부를 확인해야 합니다.
+2. 만약 충원 합격자 발표가 되었다면, 해당 일정에 맞춰 등록금을 납부해야 합니다.
+만약 2월 15일까지 합격자가 발표되지 않거나, 합격이 확실하지 않은 경우에는 다른 대학이나 전형을 검토해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.06526874358096542</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 최초합격자 성적을 보면, 해당 모집단위의 평균 수능 영어 등급은 3.20입니다.
+제출된 데이터를 바탕으로 추론해보면:
+- 게임공학과는 다군 수능(일반학생전형)에 속합니다.
+- 이 전형에서는 수능 영어 등급 점수가 반영됩니다.
+- 평균 수능 영어 등급이 3.20이고, 지원하신 분의 수능 영어 등급은 4.16입니다.
+이는 지원자의 수능 영어 성적이 평균보다 약간 높다는 것을 의미합니다. 그러나 게임공학과는 전형요소 중 수능성적만 반영하는 것이 아니라, 면접도 포함되어 있습니다. 따라서 단순히 수능 점수로 합격 확률을 판단하기는 어렵습니다.
+추가적으로:
+1. 게임공학과의 경쟁률은 4.40으로 높습니다.
+2. 동점자 처리 기준에서 면접 성적이 중요한 역할을 합니다.
+따라서, 수능 영어 점수가 평균보다 높다는 것은 좋은 점수지만, 추가 합격 확률을 정확히 예측하기 위해서는:
+1. 게임공학과의 전형요소 비율 (면접 등)을 고려해야 합니다.
+2. 면접 성적도 중요하게 평가받습니다.
+따라서, 수능 영어 점수만으로는 추가 합격 확률을 정확히 예측하기 어렵습니다. 게임공학과의 전형 특성과 지원자의 총괄적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.1680562551326113</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 경영정보학과에 지원하려면, 수능 성적과 학생부 교과성적이 중요합니다. 주요 요인들을 살펴보겠습니다:
+1. **수능 성적**:
+   - 평균 3.75는 좋은 점수입니다.
+   - 경영정보학과의 경우, 수능 최저 기준이 없으므로 이 점수로 지원 가능합니다.
+2. **학생부 교과성적**:
+   - 학생부 교과성적이 중요합니다. 3.75 평균은 좋은 성적을 보여줍니다.
+   - 경영정보학과는 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영합니다.
+3. **경쟁률**:
+   - 경영정보학과의 모집인원과 지원 인원에 따라 경쟁률이 결정됩니다.
+   - 평균 3.75는 좋은 성적일 수 있지만, 경쟁률이 높다면 추가적인 요소가 필요할 수 있습니다.
+4. **추천서 및 자기소개서**:
+   - 일부 전형에서는 추천서나 자기소개서 등 추가 자료도 요구될 수 있으므로 준비해두는 것이 좋습니다.
+5. **면접**:
+   - 경영정보학과는 면접을 실시하므로, 면접 준비도 필요합니다.
+결론적으로, 3.75의 평균 성적은 최초등록자로 지원 가능하지만, 학생부 교과성적 등 추가 요인들을 고려해야 합니다. 정확한 가능성 판단을 위해서는 동의대학교 입학처 웹사이트나 전화 상담을 통해 확인하는 것이 좋습니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.0804987219379279</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据您提供的信息，我将假设您是在询问关于东义大学（동의대학교）的正取生（정시 성적）情况。
+1. **了解学校的具体招生政策**：首先需要确认的是，东义大学对于各个专业的正取分数线是多少。通常，这些信息会在学校的官方网站上公布。
+2. **参考以往的数据**：您提到的“4.2”可能是指某个分数或排名等级。如果这个数字是基于过去几年该专业在正取生中的平均成绩或者排名，那么我们可以进行比较。
+3. **具体专业的分数线**：我们需要知道东义大学经管信息学部（경영정보학과）的具体正取分数线是多少。通常这些信息会在学校的招生简章或官方网站上公布。
+4. **综合考虑其他因素**：除了分数之外，学校还会考虑学生的综合素质、面试表现等因素。因此，即使您的成绩没有达到平均线，也不完全排除被录取的可能性。
+为了给出更准确的答案，请提供以下具体信息：
+- 东义大学经管信息学部2024年的正取分数线是多少？
+- 您的具体分数和排名等级是什么？
+如果这些信息无法获取，建议直接访问东义大学的官方网站或联系招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.08458646616541353</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年的招生计划。
+2. 经营信息学部的录取分数线（尤其是对于一般学生类型）。
+3. 您的具体成绩在该年份的排名情况。
+但是根据您提供的数据，我们可以做一些初步分析。从“多军”（Da-jun）的普通学生类型招生中可以看到：
+- 经营信息学部的招生人数为9人。
+- 总共有152名考生申请了这个专业。
+- 竞争比是16.89:1。
+根据您提供的成绩，您的综合科目标准转换分数（包括加权）为430.32。这看起来是一个相当高的分数，但我们需要知道具体的录取分数线才能确定是否能够被录取。
+通常情况下，如果您的成绩高于或接近该专业的平均录取分数线，那么您有很大的机会被录取。但是，由于每个年份的具体情况可能会有所不同（例如，某些年份可能有特别优秀的考生），因此最好查看当年的实际录取分数线来做出准确判断。
+建议：
+1. 查看东国大学2024年的最终录取分数线。
+2. 如果有可能的话，直接联系招生办公室获取更详细的信息和确认。
+3. 准备好所有申请材料以应对可能的面试或其他评估环节。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.02479338842975207</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 전형요소 반영비율을 살펴보면 수능 위주 전형입니다. 따라서 성적만으로 판단하면 다음과 같은 점들을 고려해야 합니다:
+1. **수능 최저기준**: 2024학년도 동의대학교는 수능 위주의 전형이므로, 수능 최저 기준을 충족하는 것이 중요합니다.
+2. **성적 평균**: 바이오응용공학부의 경우, 전반적으로 높은 경쟁률과 낮은 모집인원을 가진 학과로 알려져 있습니다. 따라서 3.33 정도의 성적이 상대적으로 낮은 수준입니다.
+3. **경쟁률**: 바이오응용공학부는 경쟁률이 높기 때문에, 3.33이라는 성적만으로 최초등록자로 선발될 확률은 매우 낮습니다.
+4. **추가 요소**: 학생부교과성적, 출결 등 추가 평가 요소를 고려해야 하지만, 주요 결정 요인은 수능 점수입니다.
+따라서 3.33 정도의 성적만으로 바이오응용공학부 최초등록자로 선발될 가능성은 매우 낮습니다. 더 높은 성적이 필요하며, 추가적인 지원 자질이나 학생부 성적 등을 갖추는 것이 중요합니다.
+만약에 3.33 정도의 성적을 가지고 있다면, 다른 전형명이나 학과를 고려해 보시는 것이 좋습니다. 예를 들어, 수능 위주 전형인 다른 학과나 실기/실적 위주의 전형 등을 고려해 보시는 것이 유리할 것입니다.
+추가적으로 지원자로서의 자질을 갖추고, 학생부 성적 등 추가 평가 요소를 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1321565887996241</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과에 지원하시려면, 몇 가지 요소를 고려해야 합니다:
+1. **성적**: 방사선학과는 일반적으로 높은 성적이 요구됩니다. 현재 제시된 성적(등급 4.4)으로는 경쟁률이 매우 높을 가능성이 큽니다.
+2. **모집군**: 방사선학과는 보통 가군이나 나군에 포함되며, 수능 위주 전형일 가능성이 높습니다. 따라서 성적만으로는 충분하지 않을 수 있습니다.
+3. **수능 최저기준**: 동의대학교에서는 수능 최저기준을 요구합니다. 방사선학과의 경우, 국어, 수학, 영어 등 주요 과목에서 높은 점수가 필요할 것입니다.
+4. **전형 요소**: 학생부교과성적, 출결, 면접 등의 전형 요소도 고려됩니다. 따라서 성적이 좋은 만큼 학생부와 면접 준비가 중요합니다.
+5. **경쟁률**: 방사선학과는 인기 학과로 경쟁률이 매우 높습니다. 현재의 성적만으로는 충분하지 않을 가능성이 큽니다.
+추천 사항:
+- **성적 향상**: 수능 공부를 더욱 철저히 하여 최대한 높은 점수를 받으세요.
+- **학생부 준비**: 학생부에서 좋은 성적을 반영하고, 활동과 경험을 잘 기재하세요.
+- **면접 준비**: 면접에서도 방사선학과에 대한 열정과 적합성을 잘 표현할 수 있도록 준비하세요.
+결론적으로 현재의 성적만으로는 낮은 확률로 합격할 가능성이 있습니다. 성적이 더 높아지거나, 다른 전형(예: 실기/실적 위주)을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.06043956043956043</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과 정시 모집에서 2.66이라는 성적은 상대적으로 낮은 점수입니다.
+- **정시모집군**: &lt;나&gt;군 (일반학생전형)
+- **성적 기준**: 2023년 동의대학교 방사선학과 정시 모집에서 국어+수학+탐구(2개)의 표준점수 합은 평균 4.18, 표준편차는 0.76입니다.
+- **성적 분석**: 
+  - 평균 점수 4.18보다 낮으므로, 이 성적이 조금 위험할 수 있습니다.
+  - 표준편차가 0.76이므로, 2.66은 약 3.5표준편차 아래에 위치합니다.
+**추천 조치:**
+- **보충학습**: 강화된 학습을 통해 성적을 높이는 것이 좋습니다.
+- **다양한 전형 시도**: 다른 전형(학생부종합, 실기/실적 등)으로 지원해 보는 것도 고려해볼 만합니다.
+- **면접 준비**: 면접에서도 좋은 인상을 주는 것이 중요하므로 미리 준비하는 것이 좋습니다.
+결론적으로 2.66은 위험한 성적이지만, 적극적인 대비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.1056312712806455</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적은 일반적으로 경쟁이 치열한 경찰행정학과의 농어촌 전형에서는 낮은 점수일 것입니다. 그러나 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 모집인원: 해당 전공의 정원이 얼마나 되는지 확인해야 합니다.
+2. 지원자 수: 경쟁률이 어느 정도인지 파악해야 합니다.
+3. 평균 성적: 이전년도의 합격자의 평균 성적이 어느 정도였는지를 알아보세요.
+4. 전형요소: 농어촌 학생 특성화를 고려한 요소가 있는지 확인하세요.
+5. 추가 지원 자료: 서류평가, 면접 등 다른 평가 항목에서 좋은 점수를 받았다면 이점이 있을 수 있습니다.
+6. 지역적 배려: 농어촌 학생 특성화를 고려한 선발 요인도 중요합니다.
+현재 정보만으로는 정확한 판단을 내리기 어렵습니다. 하지만 3.66이라는 성적이 낮은 편이므로, 경쟁률이 높고 평균 성적이 높다면 합격 가능성은 낮을 것으로 예상됩니다.
+추가 정보를 제공해주시면 좀 더 구체적인 분석이 가능할 것 같습니다. 필요하다면 대학 입학처에 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1706489746266654</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 전체 지원자 중에서 어느 정도 위치에 있는지, 그리고 해당 모집단위의 모집인원과 지원 인원 비율 등을 고려해야 정확한 가능성 평가를 할 수 있습니다. 하지만 일반적으로 예비후보자의 경우 최종 합격 확률이 낮습니다.
+다음은 몇 가지 고려할 사항입니다:
+1. **모집인원과 지원 인원**: 모집인원이 적고 지원 인원이 많다면, 예비후보자들의 합격 가능성은 더 낮아질 수 있습니다.
+2. **경쟁률**: 전체 경쟁률을 확인해 보세요. 예를 들어 10명 중 1명만 선발하는 경우, 예비후보자의 경우 최종 합격 확률이 매우 낮습니다.
+3. **성적과 평가 요소**: 수능 성적, 면접 성적, 서류 평가 등 각 전형요소의 점수를 확인해 보세요. 자신의 성적이 모집인원을 초과하는 지원자들보다 높다면, 최종 합격 가능성은 조금 더 높아질 수 있습니다.
+4. **결정 요인**: 일부 대학에서는 예비후보자 중에서 추가로 선발할 수 있는 경우가 있어, 이 점도 고려해 보세요.
+5. **합격자 발표 일정**: 최종 합격자를 발표하는 시점까지 계속 관심을 가지고 확인하세요. 만약 모집인원이 충원되지 않으면 예비후보자들 중에서 추가로 선발될 수 있습니다.
+결론적으로, 예비 25위라는 순위만으로는 확실한 답변을 내리기 어렵습니다. 상세한 정보를 수집하고 분석하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.09487149092981131</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시모집에 대한 정보는 제공된 자료에서 확인할 수 없습니다. 하지만 일반적으로 대학별 학과의 정시 모집 경쟁률과 평균 성적을 예측하는 방법은 다음과 같습니다:
+1. **최근 몇 년간의 입학성적 분석**: 동의대학교 법경찰행정학부의 최근 2-3년간의 최저합격 점수를 확인합니다.
+2. **모집인원과 지원자 수**: 모집인원이 많고 지원자가 적으면 낮은 점수가 합격할 가능성이 높아지지만, 반대로 모집인원이 적고 지원자가 많은 경우 높은 점수를 받는 것이 필요합니다.
+3. **경쟁률**: 경쟁률을 고려하여 안정적인 합격을 위해서는 평균 성적보다 약간 더 높은 점수를 받는 것이 좋습니다.
+4. **성적 분포**: 수능 성적이 잘 분포되어 있다면, 평균 성적에 가까운 점수가 안정적으로 합격할 가능성이 있습니다.
+5. **추천서나 면접 등 추가요소**: 일부 학과에서는 추천서나 면접 등의 추가 요소가 중요하므로 이를 고려해야 합니다.
+2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 자세한 정보는 동의대학교 입학처 웹사이트 또는 전화로 문의하시는 것이 가장 정확할 것입니다. 또한, 최근 몇 년간의 입학성적을 확인하여 더 구체적인 예측을 할 수 있습니다.
+추가적으로, 대입 컨설팅 서비스나 학원에서 제공하는 정보도 참고할 만합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.1511187307620082</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과에 대한 정보를 바탕으로 답변 드리겠습니다.
+보육가정상담학과는 아동학과로 분류되며, 해당 학과의 지원자는 주로 수능(일반학생전형)을 통해 모집됩니다. 2024년도 보육가정상담학과의 최초합격자 정보를 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 317.60, 표준 편차 9.47
+- 영어 등급: 평균 5.33
+이 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **영어 등급**: 지원자의 영어 등급 5.33은 평균치와 유사합니다. 이는 합격 가능성을 높입니다.
+2. **수능 점수**: 평균적인 수능 점수가 317.60으로, 지원자의 표준 변환 점수 314.58(평균 317.60에서 표준 편차 9.47을 뺀 값)은 약간 낮습니다. 하지만 수능 최저 기준이 없으므로 이만으로는 합격 가능성은 있습니다.
+3. **경쟁률**: 경쟁률이 매우 높아 보입니다 (4.80). 따라서, 다른 지원자들과의 비교에서 우위를 점해야 합니다.
+결론적으로, 영어 등급이 평균치와 유사하고 수능 점수가 약간 낮지만 최저 기준을 충족하지 않는다는 점을 고려할 때, 합격 가능성은 있으나 경쟁력이 높지 않을 가능성이 있습니다. 지원자의 전반적인 성적과 서류 평가 등 다른 요소들이 중요하게 작용할 수 있습니다.
+따라서, 최종 결정을 내리기 위해서는 동의대학교 입학관리팀에 직접 문의하거나, 추가 정보를 얻어보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1128822597385667</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>从您提供的信息来看，关于东国大学保育·家庭咨询学专业补充合格者第3次的情况，并没有直接说明预审12号的录取可能性。不过可以参考以下几点来评估：
+1. **补充合格通知时间**：补充合格者的第3次通知是在2024年2月15日（星期四）9:00进行的，这意味着您已经收到了补充合格的通知。
+2. **预审排名**：您提到自己是预审12号。通常来说，在补充合格阶段，学校会根据预审成绩和其他条件来决定最终录取名单。预审排名越靠前，被录取的可能性越大。
+3. **其他因素**：
+   - 个人综合评价（如面试表现、推荐信等）。
+   - 学校的具体招生政策和名额分配情况。
+   - 其他候选人的竞争程度。
+4. **建议措施**：
+   - 尽快完成补充合格阶段的注册流程，确保在规定时间内缴纳学费。
+   - 保持与学校联系，了解后续可能的通知或要求。
+   - 准备好所有必要的文件和材料，以应对任何额外的要求。
+综上所述，虽然预审12号的位置相对靠后，但仍然有一定的录取可能性。建议您尽快完成补充合格阶段的注册，并密切关注学校的进一步通知。</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.07585335018963336</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과의 입시 경쟁률과 모집인원, 전형요소 등을 고려해야 합니다.
+1. **유아교육학과의 특징**:
+   - 일반적으로 유아교육학과는 교직 관련 전공이므로 수능 성적보다 학교생활기록부와 면접 등 서류평가가 중요합니다.
+   - 일부 대학에서는 수능 점수를 반영하지 않거나, 매우 낮은 비율로만 반영할 수 있습니다.
+2. **전형요소**:
+   - 유아교육학과는 주로 학교생활기록부와 면접을 중점적으로 평가합니다.
+   - 수능 성적은 보조적인 역할을 합니다.
+3. **수능 점수의 영향**:
+   - 4.75라는 높은 수능 점수는 서류평가에서 긍정적인 요인으로 작용할 수 있습니다.
+   - 하지만 학교생활기록부와 면접 성적이 중요하기 때문에, 이 두 가지 평가에서도 좋은 결과를 얻어야 합니다.
+4. **결론**:
+   - 4.75라는 높은 수능 점수는 유리한 요인일 것입니다.
+   - 하지만 유아교육학과의 입시에서는 학교생활기록부와 면접 성적이 중요하므로, 이 부분에서도 좋은 평가를 받는 것이 중요합니다.
+따라서 4.75라는 수능 점수만으로는 확실한 보장은 어렵지만, 다른 평가 요소에서 좋은 결과를 얻으면 충분히 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1233838704913085</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)에 지원하실 경우, 환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+### 주요 고려사항:
+1. **수능최저기준**: 보육가정상담학과(아동학과)의 경우 수능최저기준이 없습니다.
+2. **모집인원 및 지원자 수**: 해당 학과의 모집인원과 지원자의 수에 따라 달라질 수 있습니다.
+3. **학생부 성적**: 환산등급 외에도 학생부 성적이 중요한 평가 요소입니다. 특히 공동체역량, 학업역량, 전공적합성 등이 중요합니다.
+4. **면접 및 실기(필요시)**: 일부 학과에서는 면접이나 실기가 포함될 수 있으므로 준비가 필요합니다.
+### 추천 조치:
+1. **학생부 성적 확인**: 학생부 성적이 높은지 확인하고, 필요한 부분을 강화하세요.
+2. **면접 및 실기 준비**: 면접이나 실기가 요구되는 경우, 관련 내용을 미리 준비해두세요.
+3. **모집인원과 지원자 수 파악**: 해당 학과의 모집인원과 지원자의 수를 확인하여 경쟁률을 예측하세요.
+### 결론:
+환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다. 철저한 준비와 학생부 성적의 우수성을 보여주면 더 높은 확률로 합격할 수 있습니다.
+추가 정보나 자세한 조언이 필요하시다면, 동의대학교 입학처 웹사이트를 참조하거나 전화 문의를 해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.1112481305980159</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프WARE융합학과는 정시 모집이 아닌 일반학생전형으로만 모집됩니다. 따라서 정시로 지원하는 것은 불가능합니다.
+일반학생전형에서는 수능 성적을 기준으로 합격자를 선발하며, 평균 등급은 다음과 같습니다:
+- 국어: 4등급 이상
+- 수학(미적분/기하): 3등급 이상 
+- 영어: 4등급 이상
+- 탐구 과목 2개: 총점 100점 이상
+이러한 기준을 충족하는 평균 등급은 대략 4등급 정도가 필요할 것으로 예상됩니다. 하지만 최종 합격 가능성을 높이기 위해서는 수능 성적 외에도 지원자의 전반적인 경쟁력을 고려하여 더 높은 점수를 받는 것이 좋습니다.
+따라서 정시로 소프WARE융합학과에 들어갈 수는 없지만, 일반학생전형에서 4등급 이상의 평균 등급을 받아야 합격 가능성이 높아집니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.04434739722540409</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요도**:
+   - 일반적으로, 소프트웨어 융합과 같은 조기 취업형 계약학과 전형에서는 면접 점수와 서류 평가(세부 특성 내용) 모두 중요한 역할을 합니다. 하지만 정확한 비중은 모집단위에 따라 다를 수 있습니다.
+   - 대부분의 경우, 서류 평가는 면접 점수보다는 덜 중요하지만, 합격 결정에 큰 영향을 미칠 수 있는 요소입니다.
+2. **서류 준비**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부 1부를 제출해야 합니다. 학생부 온라인 제공 동의자는 이 서류를 제출할 필요가 없습니다.
+   - **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서 1부, 그리고 선택적으로 학교생활기록부 대체 서류를 제출해야 합니다.
+   - **외국 고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서 1부, 그리고 선택적으로 학교생활기록부 대체 서류를 제출해야 합니다. 이때, 원본과 공증된 한국어 번역본을 함께 제출해야 하며, 아포스티유 확인서 또는 영사확인서가 필요합니다.
+3. **추천 사항**:
+   - **세특 내용의 준비**: 학교생활기록부에 기재된 내용을 뒷받침할 수 있는 구체적인 증거와 경험을 준비해야 합니다. 과장되거나 호의적으로 기재한 내용보다는 실제 경험과 노력에 근거한 내용이 더 긍정적 평가를 받을 가능성이 큽니다.
+   - **서류 제출 확인**: 서류제출 여부는 홈페이지에서 확인할 수 있으므로, 반드시 본인의 서류제출 여부를 확인해야 합니다. 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+따라서, 소프트웨어 융합과 같은 조기 취업형 계약학과에서는 면접 점수와 함께 세특 내용을 중요하게 평가하므로, 서류 준비는 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.04634583356294813</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경우, 수능 최초합격자의 경쟁률과 지원 인원 등을 고려해보겠습니다.
+- **소프트웨어공학부**:
+  - 모집인원: 36명
+  - 지원인원: 146명
+  - 경쟁률: 4.08
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  평균: 330.11 / 표준 편차: 9.08
+- **영어 등급**:
+  평균: 3.30 / 표준 편차: 0.82
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  평균: 450.71 / 표준 편차: 10.11
+이러한 정보를 바탕으로, 정시 성적이 4.08이라는 점은 경쟁률이 높은 소프트웨어공학부에 합격하기에는 다소 어려울 것으로 보입니다.
+- **경쟁률**: 4.08는 상당히 높은 수준이며, 이는 많은 지원자가 좋은 성적을 얻었다는 것을 의미합니다.
+- **평균 표준 변환 점수 합**: 330.11과 450.71이라는 평균 점수가 보여주듯이, 이 모집단위에서는 높은 점수를 요구하고 있습니다.
+따라서 정시 성적이 4.08인 경우, 소프트웨어공학부 최초합격자로 합격하기는 어렵다고 판단됩니다. 그러나 수능 성적 외에도 면접 등 다른 평가 요소들이 포함되므로, 전반적인 경쟁력을 고려해보시는 것이 좋습니다.
+만약에 확실한 결과를 원하신다면, 동의대학교 입학관리팀에 직접 문의하거나, 제공된 표와 데이터를 더 자세히 분석하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1602363355463694</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프LEncoder:융합학과는 전형요소 반영비율이 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(실적): 70%
+평균 5등급의 영어 점수를 가지고 지원한다면, 수능 영역 중 영어 등급에 따라 최대 99점까지 가산점이 부여됩니다. 
+따라서 평균 5등급으로 지원하는 경우 다음과 같은 점수를 얻을 수 있습니다:
+- 영어 등급: 5
+- 가산점: 107점 (5등급에 따른 가산점)
+영어 외 다른 영역의 성적이 좋지 않더라도, 이 가산점을 활용하여 합격 가능성을 높일 수는 있습니다. 하지만 정확한 합격 여부는 해당 모집단위의 경쟁률과 지원자의 전체 성적을 고려해야 합니다.
+따라서 평균 5등급으로 지원하는 것은理论上，一个平均英语等级为5的学生可以考虑申请该专业。但是，最终是否能够被录取还需要综合考虑其他因素，如各科目的成绩、学生背景等以及该专业的竞争情况。
+如果您有更多具体信息或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1697946787232502</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 몇 가지 정보를 바탕으로 추론해볼 수 있습니다.
+1. **모집인원과 지원자 수**: 동의대학교 신소재공학과는 모집 인원이 56명이고, 지원 인원은 81명입니다 (경쟁률 1.45). 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+2. **점수 분포**: 표에서 제공된 최종등록자들의 점수가 보면, 국어 + 수학 + 탐구(2개)의 평균 표준 변환 점수는 271.64입니다 (표준 편차 19.52). 이 점수보다 높은 점수를 받았던 지원자들이 많습니다.
+3. **점수 비교**: 4.28이라는 점수가 표에서 제공된 평균 점수(4.60)와 비슷하거나 약간 낮을 수 있습니다. 하지만 표준 편차가 크기 때문에, 이 점수만으로는 확실한 판단이 어렵습니다.
+4. **전형 요소**: 신소재공학과는 실기/실적 위주 전형입니다 (실기 70%, 서류 30%). 따라서 실기 성적이 중요할 수 있습니다.
+5. **추천사항**:
+   - **면접 준비**: 면접 점수가 높은 지원자들이 많을 가능성이 있으므로, 면접 준비를 철저히 해야 합니다.
+   - **서류 준비**: 서류 평가에서도 좋은 성적을 받기 위해 노력해야 합니다.
+   - **추천서 및 자기소개서**: 추천서와 자기소개서도 중요하므로 잘 작성해보세요.
+결론적으로, 4.28이라는 점수만으로는 확실한 입학이 보장되지는 않습니다. 하지만 경쟁률이 낮고, 실기 성적이 좋은 지원자들보다 높은 점수를 받았다면, 좋은 결과를 기대할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1350236846755839</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 요구하지 않습니다. 
+수능(일반학생전형)은 주로 수능 점수와 학교생활기록부 등을 기준으로 평가됩니다. 따라서 자기소개서 작성은 필요하지 않습니다.
+주요 평가 요인:
+1. 수능 성적 (국어, 수학, 영어 등)
+2. 학교생활기록부 
+3. 탐구 과목 점수
+자기소개서 대신 다음과 같은 준비를 추천드립니다:
+- 정확한 수능 일정 확인
+- 수능 공부 계획 세우기
+- 학교생활기록부 작성 및 관리
+- 탐구 과목 복습
+만약 다른 전형(예: 학생부종합, 실기/실적 등)에서는 자기소개서가 필요할 수 있으니 해당 전형의 요구사항을 확인하시면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.04212440617577197</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 국어, 수학(미적분/기하), 영어 등급, 탐구 등급을 반영하여 총점이 산출됩니다. 동의대의 경우 수능 최저 합격 기준이 없습니다만, 추가모집 가능성은 다음과 같이 판단할 수 있습니다:
+1. **최종 합격선**: 정시 모집에서 가장 높은 점수를 받은 지원자의 점수가 대략적인 최소합격선을 나타냅니다.
+2. **추가모집 기회**: 정시 모집이 마감된 후, 일부 모집단위에서는 추가모집을 실시할 수 있습니다. 이때는 일반적으로 최저 합격선보다 낮은 점수로 선발될 가능성이 있습니다.
+3. **개인 성적 평가**: 동의대는 지원자의 전반적인 성적과 적합성을 종합적으로 판단하므로, 단순히 수능 점수만이 결정하는 것은 아닙니다. 다른 요소들도 고려됩니다.
+4. **모집 상태 확인**: 추가모집 여부와 일정을 확인해야 합니다. 이 정보는 동의대학교 입학 홈페이지에서 확인할 수 있습니다.
+따라서, 4.5라는 점수만으로 확실하게 결정하기는 어렵습니다. 정시 모집 결과를 참고하고, 추가모집이 실시되는 경우 해당 기회를 활용하는 것이 좋겠습니다. 추가모집에 대한 자세한 정보는 동의대학교 입학 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2591824575373285</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 대한 정보를 보면, 신소재공학과와 분자나노공학과가 포함된 모집단위의 경우 다음과 같은 특징을 가지고 있습니다:
+- **모집 단위**: 신소재공학과, 분자나노공학과
+- **모집 인원**: 56명 (81명 중 일부)
+- **전형 유형**: 가군 수능(일반학생전형)
+이 모집단위는 전형요소 반영비율이 다음과 같습니다:
+- 수능: 30%
+- 실기/실적: 70%
+수능 최저 기준은 명시되어 있지 않습니다.
+따라서, 신소재공학부에 대한 정확한 합격 가능 등급을 단정적으로 말하기는 어렵습니다. 하지만 일반적으로 수능 최저 기준이 없거나 매우 낮은 경우를 제외하고, 대체로 **수능 3등급** 이상이 필요할 것으로 예상됩니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전형요강을 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.07872506183688081</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 학과의 최종 평균 점수가 작년에 비해 약간 상승하거나 하락하는 것은 가능합니다. 하지만 이는 여러 요인에 따라 달라질 수 있습니다:
+1. **모집 인원 및 지원자 수**: 작년과 올해의 모집 인원이나 지원자 수가 다르다면, 평균 점수가 변동될 수 있습니다.
+2. **지원 경쟁도**: 작년보다 더 많은 지원자가 동일한 학과를 지원했을 경우, 최종 평균 점수는 상승할 가능성이 있습니다.
+3. **성적 분포 변화**: 작년과 올해의 성적이 어떻게 분포되어 있는지에 따라 평균이 달라질 수 있습니다. 예를 들어, 올해는 높은 점수가 더 많이 나왔다면 평균이 상승할 수 있습니다.
+4. **입학사정관의 판단**: 입학사정관들이 학생들의 전반적인 성적과 적합성을 고려하여 최종 결정을 내릴 때, 이는 평균 점수에 영향을 줄 수 있습니다.
+따라서 2024년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년보다 약간 높아질 가능성은 있지만, 확실한 것은 아닙니다. 정확한 정보는 입학처나 공식 발표를 통해 확인해야 합니다.
+만약 궁금한 점이 더 있으시다면, 동의대학교 입학처 웹사이트 또는 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.096190556346369</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 신소재공학과에 지원하기 위해서는 몇 가지 요인들을 고려해야 합니다:
+1. **모집인원 및 경쟁률**: 신소재공학과의 모집인원과 현재 지원자의 수, 그리고 경쟁률을 확인해야 합니다.
+2. **성적 평균**: 동일계 전형에서 4.1~4.2 등급으로 붙은 학생들의 성적 평균이 어느 정도인지 파악해야 합니다. 이 정보는 대학 홈페이지나 입학처에 공개되어 있을 수 있습니다.
+3. **전형요소 비율**: 신소재공학과의 전형요소 반영비율을 확인합니다. 일반적으로 수능성적이 큰 비중을 차지하므로, 성적만으로도 충분히 가능할 수 있지만, 다른 요소들도 고려됩니다.
+4. **추천서 및 자기소개서 등**: 추천서나 자기소개서 등의 서류평가 결과가 중요합니다. 이 부분에서 좋은 평가를 받으면 성적이 조금 떨어져도 합격 가능성은 높아집니다.
+5. **면접 성적**: 면접에서도 좋은 점수를 받는다면, 성적이 약간 낮더라도 합격 가능성이 있습니다.
+6. **추천사례**: 동의대학교 입학관리 홈페이지나 전형요강을 통해 해당 학과의 동점자 처리기준 등을 확인해 보세요. 이 기준에 따라 4.1~4.2 등급으로도 합격할 수 있는 가능성은 있습니다.
+결론적으로, 현재 성적만으로는 확실하게 붙을 수 없다고 단정 짓기는 어렵습니다. 하지만 성적이 약간 낮더라도 다른 요소들이 잘 준비된다면 합격 가능성은 높아질 수 있습니다. 따라서:
+- 성적 외 서류를 철저히 준비하세요.
+- 면접에서도 최선을 다해 준비해야 합니다.
+- 동의대학교 입학관리 홈페이지나 전형요강을 자세히 확인하여 더 정확한 판단을 내리세요.
+이런 점들을 종합적으로 고려하면, 4.1~4.2 등급으로도 신소재공학과에 지원할 수 있는 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.1355829130821715</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최종합격자들의 성적을 참고하겠습니다. 표에서 인공지능학과에 해당하는 데이터를 찾아보면:
+인공지능학과 / 15 / 24 / 1.60 / 5 / { 301.87 /  12.38 / } / { 4.13 /  0.71 / } / { 4.98 /  0.25 / } / { 415.80 /  10.49 / } /
+이 데이터에서 중요한 성적 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합: 415.80
+- 영어 등급 평균: 4.13
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 415.80
+이러한 성적을 기반으로 보면, 인공지능학과의 경쟁률은 약 1.60대 1로 낮으며, 최종합격자의 평균 국어+수학+탐구 점수는 415.80점입니다.
+하지만 이는 단 한 해의 데이터일 뿐이며, 실제 수능 성적은 매년 변동될 수 있습니다. 또한 학과별 모집인원, 지원자 수 등 다양한 요인이 경쟁률과 최종합격 점수에 영향을 미칩니다.
+따라서 정확한 예상 절대적인 점수를 말씀드리기는 어렵습니다만, 이와 유사한 성적을 얻는 것이 목표로 하시면 좋을 것 같습니다. 또한 학과 특성과 관련된 수능 과목별 강화도 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2793392507125659</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 보고 정확한 판단을 내리기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당하는 모집단위와 전형 유형이 무엇인지 확인해야 합니다.
+2. 해당 모집단위의 수능 최저 기준이나 성적 반영 방식을 알아야 합니다.
+3. 지원자의 전체 학력 경로와 전형 요소 반영 비율 등을 고려해야 합니다.
+만약 가군 수능(일반학생전형)에서 5.27이라는 점수를 가지고 있다면, 일반적으로 이 성적은 충분히 최저 기준을 넘을 가능성이 높습니다. 하지만 정확한 판단을 위해서는 위의 정보들을 확인해야 합니다.
+추천되는 방법은:
+1. 해당 모집단위의 공식 홈페이지나 입학 안내 센터를 통해 최신 정보를 확인합니다.
+2. 전형요소 반영 비율과 성적 반영 방식 등을 파악합니다.
+3. 만약 불확실하다면, 동의대학교 입학관리팀에 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.
+입학 관련 질문은 언제든지 대학 측에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1222169000761376</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 최저 기준을 충족하는 데 어려움이 있을 수 있습니다. 하지만 동의대학교의 정시 모집에서는 수능 성적 외에도 다양한 전형요소가 고려됩니다. 특히 소프트웨어공학부와 관련된 전공적합성, 학업역량 등이 중요한 역할을 합니다.
+다음은 추천 가능한 절차입니다:
+1. **전형 요소 확인**: 소프트웨어공학부는 실기/실적 위주로 모집되는 경우가 많으므로, 해당 전공의 특성화 과정이나 프로그래밍 경험이 있다면 이에 대한 증빙 자료를 준비해보세요.
+2. **서류 제출**: 서류 평가에서 학업역량과 전공적합성을 잘 보여줄 수 있도록 지원동기를 명확히 작성하고, 관련 활동이나 경험을 구체적으로 기재하세요.
+3. **면접 준비**: 면접에서는 자신의 학업계획과 입학 후의 목표를 잘 설명하며, 소프트웨어공학에 대한 이해도와 관심을 표현하는 것이 중요합니다.
+4. **추천서 활용**: 가능하다면 교사나 지도교사의 추천서를 준비하여 서류 평가에서 긍정적인 점수를 받을 수 있도록 하세요.
+5. **출결 및 성적 관리**: 출결이 좋고, 학업성적이 높은 과목에 대한 석차 등급이 높다면 이점도 강하게 보여줄 수 있습니다.
+4.2라는 점수로는 정시에서 소프트웨어공학부를 지원하는 것이 쉽지 않을 수 있지만, 전형요소와 성적을 잘 준비한다면 가능성이 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.09768060110159506</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了确定是否可以申请东国大学化工环境工学部的一般学生入学,我们需要考虑以下几个因素:
+1. 成绩要求:
+   - 根据您的成绩(3.92),您需要查看该专业的具体录取分数线。
+   - 化学环境工学部的录取标准可能会有所不同。
+2. 招生计划:
+   - 查看该专业在当年的具体招生名额。
+   - 了解是否有剩余名额可以录取。
+3. 性别比例要求:
+   - 根据您提供的信息,化工环境工学部似乎有性别比例要求(男女各50%)。
+   - 如果您的性别不符合要求,可能无法申请。
+4. 其他条件:
+   - 确认是否有其他附加条件或限制。
+建议步骤:
+1. 查看东国大学官网发布的2024年招生简章中化工环境工学部的具体录取标准和名额信息。
+2. 核实您的性别是否符合该专业的性别比例要求。
+3. 如果符合条件,可以尝试申请。但请注意,最终能否录取还需根据实际报名情况而定。
+建议直接访问东国大学官网或联系学校招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.06866416978776529</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 수능 일반학생전형으로 지원할 경우, 다음과 같은 절차와 요건을 확인해야 합니다:
+1. **모집단위**: 화학환경공학부는 공과대학에 속해 있습니다.
+2. **성적 반영방법**:
+   - 화학환경공학부는 수능 성적이 반영되는 모집단위입니다.
+   - 가군(일반학생전형)의 경우, 수능 성적이 100% 반영됩니다 (국어 + 수학 + 영어 + 탐구).
+3. **성적 요건**:
+   - 동의대학교는 일반적으로 수능 성적을 기준으로 모집합니다.
+   - 화학환경공학부는 공과대학에 속해 있어, 수능 성적이 반영됩니다.
+4. **성적 확인**:
+   - 4.25라는 점수는 수능 성적의 표준점수입니다 (0~100점).
+   - 이 점수를 가지고 지원 가능합니다.
+따라서, 동의대학교 화학환경공학부에 지원하신다면, 4.25의 수능 성적이 충분히 고득점을 받을 수 있는 범위에 속해 있습니다. 하지만 최종 합격 여부는 모집인원과 경쟁률 등 여러 요인에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 입학공고 및 합격자 발표를 주시해야 합니다.
+추가적으로, 수능 성적 외에도 지원자의 전반적인 자질과 능력을 평가하는 면접이나 서류평가 등이 있을 수 있으므로, 해당 부분도 준비해두시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1284357316087308</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 정확한 의미가 무엇인지 명시되어 있지 않으므로, 일반적으로 대입 성적을 가정하겠습니다. 영화학과의 전형요소 중 학생부교과와 실기/실적 위주로 평가되는 경우가 많습니다.
+1. **전형 요소 반영 비율 확인**: 
+   - 영화학과는 주로 실기/실적 위주로 평가되므로, 실기 성적이 중요합니다.
+   - 학생부교과 성적도 고려하지만, 실기가 더 큰 비중을 차지합니다.
+2. **성적 분석**:
+   - 4.2는 대략적인 점수이지만, 정확한 등급이나 표준점수를 알고 있어야 합니다.
+   - 예를 들어, 4.2가 3등급이라면, 이 정도 성적이 영화학과에서 좋은 성적일 수 있습니다.
+3. **예상 평균성적**:
+   - 영화학과의 최초합격자 표에 따르면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 대략 400-450 사이입니다.
+   - 이는 3등급에서 4등급 정도의 성적을 의미할 수 있습니다.
+4. **합격 가능성**:
+   - 현재의 성적이 영화학과의 평균성적보다 높다면, 합격 가능성은 있습니다.
+   - 그러나 경쟁률이 높아서 다른 지원자들의 성적이 더 좋다면, 여전히 낮을 수 있습니다.
+5. **추가 요소**:
+   - 면접 성적이나 서류 평가 등도 중요한 역할을 합니다.
+   - 실기 성적과 학생부교과 성적의 균형이 중요합니다.
+결론적으로, 4.2라는 점수만으로는 확실한 판단이 어렵습니다. 영화학과의 전형요소와 지원자의 전체적인 성적 및 경쟁률을 고려해야 합니다. 만약 가능하다면, 동일 학교나 유사 학교의 최초합격자 성적을 참고하거나, 입학처에 문의하여 자세한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1282821659981487</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文描述：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실 (Arrival at Waiting Room)
+2. 신분 확인 (Identification Check) 
+3. 고사장 앞 이동 (Move to Exam Room)
+4. 고사장 입실 (Enter Exam Room)
+5. 지원 동기 및 학업 계획 발표 (Presentation on Motivation and Academic Plan)
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 (Discussion on Academic Abilities and Major Suitability)
+7. 기타 질의응답 (Additional Questions about Submitted Documents)
+각 단계별로 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적인 면접을 실시합니다. 이는 정성적이고 종합적으로 이루어집니다.
+이러한 절차를 통해 지원자의 학업역량, 전공 적합성 등을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.380946123521682</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4112521213983774</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2605798149824099</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2204748068467902</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3359159681903937</v>
+      <c r="D305" t="n">
+        <v>0.2974355810758592</v>
       </c>
     </row>
   </sheetData>
